--- a/data/trans_dic/P43-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Dificultad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3623622079221994</v>
+        <v>0.3623060422957348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4285343701743999</v>
+        <v>0.4254490741280478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.451799412812382</v>
+        <v>0.4509993598671295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4206584618091419</v>
+        <v>0.4193297550141331</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4294519159686176</v>
+        <v>0.4276410380930282</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4911317199065073</v>
+        <v>0.4868716956484395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5094427878139203</v>
+        <v>0.5074556801437103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5020007415191994</v>
+        <v>0.4991266081247826</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3354796211958591</v>
+        <v>0.3380777438423503</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.436828306014796</v>
+        <v>0.4366133142844876</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4833406907359913</v>
+        <v>0.4827638012733768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4534148473778454</v>
+        <v>0.4518672080206708</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3963149844847685</v>
+        <v>0.3994439195270114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5002009546971649</v>
+        <v>0.499357446231601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5479140981121444</v>
+        <v>0.5479800392428967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5102994344881702</v>
+        <v>0.5120921314362648</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.5121490321793726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5063075466182978</v>
+        <v>0.5063075466182977</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3350379113390337</v>
+        <v>0.3334909475848606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4463213669154828</v>
+        <v>0.4410625304581433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.474612574226184</v>
+        <v>0.4738123549024138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4744149303491716</v>
+        <v>0.4746143217570843</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3949162837567539</v>
+        <v>0.3979530907996238</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5177744397788772</v>
+        <v>0.511484944673527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5480263606444801</v>
+        <v>0.5487440758691063</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5380728783649956</v>
+        <v>0.5376690138916536</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.4933627741448192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6452239525914486</v>
+        <v>0.6452239525914487</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3584707118611694</v>
+        <v>0.3597150171154461</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4436683850542779</v>
+        <v>0.4372393981714448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4526964298836814</v>
+        <v>0.4500459802462531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6039930153319381</v>
+        <v>0.6029416832069148</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4642931766582062</v>
+        <v>0.4645655232619377</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5388575566256654</v>
+        <v>0.5385082271233727</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5400804387170527</v>
+        <v>0.5410212305976311</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6809815051265227</v>
+        <v>0.6807566160630271</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.362459275146783</v>
+        <v>0.3614945482819013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4526051564394228</v>
+        <v>0.4536110498736107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4813472073486503</v>
+        <v>0.4823250436210753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5038929878352113</v>
+        <v>0.5059685296011165</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3953378189765623</v>
+        <v>0.3952227235503525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4872694207652556</v>
+        <v>0.4896028359895218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5155234628243764</v>
+        <v>0.515824696229458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5408173213480109</v>
+        <v>0.540265083450837</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>333551</v>
+        <v>333499</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>476708</v>
+        <v>473276</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>567215</v>
+        <v>566211</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>217412</v>
+        <v>216726</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>395306</v>
+        <v>393639</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>546343</v>
+        <v>541604</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>639584</v>
+        <v>637089</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>259453</v>
+        <v>257968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>352968</v>
+        <v>355702</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>475217</v>
+        <v>474983</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>483488</v>
+        <v>482911</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>383513</v>
+        <v>382204</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>416975</v>
+        <v>420267</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>544159</v>
+        <v>543241</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>548081</v>
+        <v>548147</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>431628</v>
+        <v>433144</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>330187</v>
+        <v>328662</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>389152</v>
+        <v>384566</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>362414</v>
+        <v>361803</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>361294</v>
+        <v>361446</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>389198</v>
+        <v>392191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>451452</v>
+        <v>445968</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>418472</v>
+        <v>419020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>409774</v>
+        <v>409466</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>121268</v>
+        <v>121689</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>199103</v>
+        <v>196218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>218462</v>
+        <v>217183</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>393253</v>
+        <v>392569</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>157067</v>
+        <v>157159</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>241820</v>
+        <v>241664</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>260631</v>
+        <v>261085</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>443380</v>
+        <v>443233</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1194823</v>
+        <v>1191643</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1593610</v>
+        <v>1597151</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1685650</v>
+        <v>1689074</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1398463</v>
+        <v>1404223</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1303205</v>
+        <v>1302825</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1715661</v>
+        <v>1723877</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1805333</v>
+        <v>1806388</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1500940</v>
+        <v>1499407</v>
       </c>
     </row>
     <row r="24">
